--- a/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>SOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E8" s="3">
         <v>14200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>9800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -770,13 +777,16 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,13 +887,16 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>5700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -884,23 +904,26 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>-4400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>9100</v>
       </c>
       <c r="K14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="L14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E17" s="3">
         <v>18900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>80500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-14100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-40700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,42 +1042,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>21100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-8200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E23" s="3">
         <v>16400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-40400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E26" s="3">
         <v>12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-40700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
         <v>12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-40700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,37 +1328,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E33" s="3">
         <v>12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-40700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E35" s="3">
         <v>12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-40700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>15400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>94900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>12700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,37 +1745,43 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>16800</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,66 +1809,75 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>600</v>
       </c>
       <c r="K47" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E52" s="3">
         <v>37100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>57600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E54" s="3">
         <v>69200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>111500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>96100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>91100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>115000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,16 +2095,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -1983,19 +2114,22 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>11100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,37 +2157,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E59" s="3">
         <v>64100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>91200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>131200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>93500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>56400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>50200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E66" s="3">
         <v>64100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>92200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>132200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>95200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>76400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>78700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>79700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-293100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-306000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-303800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-283200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-268300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-257300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-246700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-221700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-20300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-20700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>25100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E81" s="3">
         <v>12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-40700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,13 +3022,16 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>500</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
@@ -2822,23 +3039,26 @@
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
         <v>25600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,13 +3070,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-200</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
@@ -2864,23 +3085,26 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
         <v>10700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,13 +3164,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-800</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
@@ -2951,23 +3181,26 @@
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
         <v>10000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,13 +3338,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>900</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
@@ -3109,23 +3355,26 @@
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
         <v>-7700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3138,28 +3387,31 @@
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>600</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
@@ -3167,19 +3419,22 @@
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
         <v>27100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-36100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E8" s="3">
         <v>9900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E9" s="3">
         <v>9800</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
@@ -780,17 +787,20 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,16 +907,19 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>5700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3">
+        <v>5700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
@@ -907,23 +927,26 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>-4400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>9100</v>
       </c>
       <c r="L14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E17" s="3">
         <v>18200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>80500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-11800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-40700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,49 +1076,53 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>21100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8200</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-29800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-30200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-40700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-30200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,16 +1389,19 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>-500</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>-500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1357,14 +1418,17 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-21100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-40700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-30200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-40700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-30200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1774,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,17 +1844,20 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
         <v>16800</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1774,14 +1873,17 @@
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,95 +1914,104 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>600</v>
       </c>
       <c r="L47" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>53700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>57600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E54" s="3">
         <v>72700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>71900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>111500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>96100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>91100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>103800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>115000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>137500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,19 +2226,20 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>1100</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2117,19 +2248,22 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>11100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,40 +2294,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E59" s="3">
         <v>20600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>91200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>131200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>93500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>56400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,17 +2399,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
         <v>50200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2282,14 +2428,17 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>70800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>64100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>92200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>132200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>76400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>78700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-293100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-306000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-303800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-283200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-268300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-257300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-246700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-221700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-20300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-20700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-40700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-30200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,16 +3031,17 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
@@ -2859,14 +3058,17 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>25600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>10700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,45 +3584,51 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>-7700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>700</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
@@ -3390,51 +3639,57 @@
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>27100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-36100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>SOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,117 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>184500</v>
+      </c>
+      <c r="E8" s="3">
         <v>50300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E9" s="3">
         <v>37300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9800</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
@@ -790,20 +797,23 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E10" s="3">
         <v>13000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,32 +865,35 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,19 +927,22 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>5700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3">
+        <v>5700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -930,23 +950,26 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>-4400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>9100</v>
       </c>
       <c r="M14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="N14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E17" s="3">
         <v>45900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>41200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>80500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E18" s="3">
         <v>4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-40700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-30100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,55 +1110,59 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>21100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E21" s="3">
         <v>5000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E23" s="3">
         <v>5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-8200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-29800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E26" s="3">
         <v>4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E27" s="3">
         <v>4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-40700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,19 +1450,22 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-500</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>-500</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3">
+        <v>-500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1421,14 +1482,17 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-21100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E33" s="3">
         <v>4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-40700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E35" s="3">
         <v>4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-40700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>39200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>94900</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,66 +1867,72 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E43" s="3">
         <v>61300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>11900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>102600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1847,20 +1943,23 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
         <v>16800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1876,14 +1975,17 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1928,75 +2033,81 @@
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1900</v>
-      </c>
-      <c r="L47" s="3">
-        <v>600</v>
       </c>
       <c r="M47" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
@@ -2013,8 +2124,8 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>53700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>37100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>57600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>559700</v>
+      </c>
+      <c r="E54" s="3">
         <v>69800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>72700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>71900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>111500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>96100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>91100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>103800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>137500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,22 +2357,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2251,19 +2382,22 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>11100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,43 +2431,49 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
         <v>8400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>64100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>91200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>131200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>93500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>60700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,20 +2545,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
         <v>50200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2431,14 +2577,17 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>64100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>92200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>132200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>95200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>76400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>79700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E72" s="3">
         <v>5800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-293100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-306000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-303800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-283200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-268300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-257300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-246700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-221700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>559800</v>
+      </c>
+      <c r="E76" s="3">
         <v>60200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-20300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-20700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E81" s="3">
         <v>4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-40700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,19 +3230,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -3061,14 +3260,17 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-339200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-43600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
-        <v>25600</v>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J89" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-26900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-35300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>10700</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E94" s="3">
         <v>3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>10000</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,52 +3830,58 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>551800</v>
+      </c>
+      <c r="E100" s="3">
         <v>43600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
-        <v>-7700</v>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>7700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
@@ -3642,54 +3891,60 @@
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>184800</v>
+      </c>
+      <c r="E102" s="3">
         <v>3700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
-        <v>27100</v>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J102" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-31800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-36100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>SOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,127 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>173300</v>
+      </c>
+      <c r="E8" s="3">
         <v>184500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>169500</v>
+      </c>
+      <c r="E9" s="3">
         <v>167200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
@@ -800,23 +807,26 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E10" s="3">
         <v>17300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,32 +882,35 @@
       <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>5700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>5700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -953,23 +973,26 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>9100</v>
       </c>
       <c r="N14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E17" s="3">
         <v>204600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>41200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>80500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-20100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-40700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-30100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,61 +1144,65 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>21100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-29800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>3400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-40700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,22 +1511,25 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-500</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>-500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3">
+        <v>-500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1485,14 +1546,17 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-21100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-40700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-40700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E41" s="3">
         <v>185500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>94900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,55 +1960,61 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E43" s="3">
         <v>60600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>61300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>34800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E44" s="3">
         <v>102600</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1934,8 +2030,8 @@
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1946,23 +2042,26 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
         <v>164300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
         <v>16800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1978,14 +2077,17 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,8 +2124,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2036,70 +2141,76 @@
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
-      </c>
-      <c r="M47" s="3">
-        <v>600</v>
       </c>
       <c r="N47" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E48" s="3">
         <v>34500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2109,8 +2220,8 @@
       <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
+      <c r="F49" s="3">
+        <v>100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>5</v>
@@ -2127,8 +2238,8 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
         <v>53700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>57600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>35800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>695300</v>
+      </c>
+      <c r="E54" s="3">
         <v>559700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>72700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>71900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>111500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>96100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>103800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>115000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>137500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,25 +2488,26 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2385,19 +2516,22 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>11100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,46 +2568,52 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>64100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>91200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>131200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>93500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,23 +2691,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
         <v>50200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2580,14 +2726,17 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>92200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>132200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>95200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>76400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>79700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-293100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-306000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-303800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-283200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-268300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-257300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-246700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-221700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>633400</v>
+      </c>
+      <c r="E76" s="3">
         <v>559800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-20300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-20700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-40700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,22 +3429,23 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E83" s="3">
         <v>5500</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3263,14 +3462,17 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-339200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-43600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>-36600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-26900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,58 +4076,64 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E100" s="3">
         <v>551800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>43600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>7700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
@@ -3894,57 +4143,63 @@
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>149500</v>
+      </c>
+      <c r="E102" s="3">
         <v>184800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-40700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-31800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-36100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>SOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,137 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E8" s="3">
         <v>173300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>184500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E9" s="3">
         <v>169500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>167200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
@@ -810,26 +817,29 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E10" s="3">
         <v>3800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
@@ -851,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -885,32 +899,35 @@
       <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,25 +967,28 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>5700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>5700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -976,23 +996,26 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-4400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>9100</v>
       </c>
       <c r="O14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1072,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E17" s="3">
         <v>194600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>204600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>80500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-20100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-40700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-30100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,67 +1178,71 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>21100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1227,8 +1264,11 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,90 +1308,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-29800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>3400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-30200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-30200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,25 +1572,28 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-500</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>-500</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3">
+        <v>-500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1549,14 +1610,17 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1704,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E32" s="3">
         <v>7200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-21100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-40700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-30200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-40700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-30200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1967,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>247300</v>
+      </c>
+      <c r="E41" s="3">
         <v>338000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>185500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,61 +2053,67 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E43" s="3">
         <v>214900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>60600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>61300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>34800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E44" s="3">
         <v>96100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>102600</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2033,8 +2129,8 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2045,26 +2141,29 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
         <v>164300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
         <v>16800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2080,14 +2179,17 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,8 +2229,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2144,73 +2249,79 @@
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1900</v>
-      </c>
-      <c r="N47" s="3">
-        <v>600</v>
       </c>
       <c r="O47" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E48" s="3">
         <v>31700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>34500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2223,8 +2334,8 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
@@ -2241,8 +2352,8 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2449,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>53700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>57600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2537,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E54" s="3">
         <v>695300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>559700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>72700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>71900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>111500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>115000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>137500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,28 +2619,29 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E57" s="3">
         <v>29500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2519,19 +2650,22 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>11100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,49 +2705,55 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E59" s="3">
         <v>32200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>91200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>131200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>93500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,8 +2793,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,26 +2837,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
         <v>50200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2729,14 +2875,17 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3013,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E66" s="3">
         <v>61900</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>70800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>92200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>132200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>76400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,8 +3251,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3089,40 +3263,43 @@
         <v>-43400</v>
       </c>
       <c r="E72" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-293100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-306000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-303800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-283200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-268300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-257300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-246700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-221700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>637100</v>
+      </c>
+      <c r="E76" s="3">
         <v>633400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>559800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-20300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-20700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-40700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-30200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,25 +3628,26 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
         <v>-300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5500</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3465,14 +3664,17 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="E89" s="3">
         <v>120600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-339200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-43600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>-36600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-26900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-35300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3954,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3">
         <v>1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4084,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,64 +4322,70 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E100" s="3">
         <v>32300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>551800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>43600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>7700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
@@ -4146,60 +4395,66 @@
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-90700</v>
+      </c>
+      <c r="E102" s="3">
         <v>149500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>184800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-40700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-31800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-36100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>SOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,147 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>132700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>173300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>184500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>50300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E9" s="3">
         <v>120300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>169500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>167200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
@@ -820,29 +827,32 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
         <v>12400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
@@ -864,8 +874,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,32 +916,35 @@
       <c r="H12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,28 +987,31 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>5700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3">
+        <v>5700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -999,23 +1019,26 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>-4400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>9100</v>
       </c>
       <c r="P14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1099,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>148000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>194600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>204600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>80500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>46800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-15300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-40700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-30100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,73 +1212,77 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>21100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-14300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1267,8 +1304,11 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,96 +1351,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-29800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>3400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1492,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-40700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-30200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-40700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-30200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,28 +1633,31 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-500</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>-500</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>-500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1613,14 +1674,17 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1774,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-21100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-40700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-30200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1915,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-40700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-30200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2054,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>259500</v>
+      </c>
+      <c r="E41" s="3">
         <v>247300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>338000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>185500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>71700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,67 +2146,73 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E43" s="3">
         <v>335300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>214900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>61300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>23600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>33800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E44" s="3">
         <v>84900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>96100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>102600</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2132,8 +2228,8 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2144,8 +2240,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2155,18 +2254,18 @@
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
         <v>164300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
         <v>16800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2182,14 +2281,17 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2232,8 +2334,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2252,76 +2357,82 @@
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1900</v>
-      </c>
-      <c r="O47" s="3">
-        <v>600</v>
       </c>
       <c r="P47" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E48" s="3">
         <v>30100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2337,8 +2448,8 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2355,8 +2466,8 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2569,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,41 +2583,44 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
         <v>53700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2663,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>454700</v>
+      </c>
+      <c r="E54" s="3">
         <v>713000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>695300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>559700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>72700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>69200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>71900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>111500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>103800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>115000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>137500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,31 +2750,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E57" s="3">
         <v>34900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2653,19 +2784,22 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>11100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>14100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,52 +2842,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E59" s="3">
         <v>41600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>91200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>56400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2796,8 +2936,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +2983,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2851,18 +2997,18 @@
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>50200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2878,14 +3024,17 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3171,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E66" s="3">
         <v>75900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>70800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>92200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>132200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>95200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>76400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>79700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3425,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-43400</v>
+        <v>272900</v>
       </c>
       <c r="E72" s="3">
         <v>-43400</v>
       </c>
       <c r="F72" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-14600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-293100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-306000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-303800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-283200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-268300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-257300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-246700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-221700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3613,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>409600</v>
+      </c>
+      <c r="E76" s="3">
         <v>637100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>633400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>559800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>60200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-20300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-20700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3707,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-40700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-30200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,28 +3827,29 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>-300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5500</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -3667,14 +3866,17 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4107,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-104300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>120600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-339200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-43600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>-36600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-26900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-35300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4175,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-16000</v>
       </c>
       <c r="E91" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-34200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-500</v>
-      </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3">
+        <v>-10700</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4314,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E94" s="3">
         <v>1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,70 +4568,76 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E100" s="3">
         <v>18500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>551800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>43600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>7700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
@@ -4398,63 +4647,69 @@
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-90700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>149500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>184800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-40700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-31800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-36100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>SOS</t>
   </si>
@@ -741,20 +741,20 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>127400</v>
       </c>
       <c r="E8" s="3">
         <v>132700</v>
       </c>
       <c r="F8" s="3">
-        <v>173300</v>
+        <v>106300</v>
       </c>
       <c r="G8" s="3">
         <v>184500</v>
       </c>
       <c r="H8" s="3">
-        <v>50300</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>9900</v>
@@ -795,13 +795,13 @@
         <v>120300</v>
       </c>
       <c r="F9" s="3">
-        <v>169500</v>
+        <v>110600</v>
       </c>
       <c r="G9" s="3">
         <v>167200</v>
       </c>
-      <c r="H9" s="3">
-        <v>37300</v>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I9" s="3">
         <v>9800</v>
@@ -835,20 +835,20 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>-22900</v>
       </c>
       <c r="E10" s="3">
         <v>12400</v>
       </c>
       <c r="F10" s="3">
-        <v>3800</v>
+        <v>-4300</v>
       </c>
       <c r="G10" s="3">
         <v>17300</v>
       </c>
-      <c r="H10" s="3">
-        <v>13000</v>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -1105,20 +1105,20 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>326600</v>
       </c>
       <c r="E17" s="3">
         <v>148000</v>
       </c>
       <c r="F17" s="3">
-        <v>194600</v>
+        <v>129200</v>
       </c>
       <c r="G17" s="3">
         <v>204600</v>
       </c>
       <c r="H17" s="3">
-        <v>45900</v>
+        <v>7600</v>
       </c>
       <c r="I17" s="3">
         <v>18200</v>
@@ -1152,20 +1152,20 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-199200</v>
       </c>
       <c r="E18" s="3">
         <v>-15300</v>
       </c>
       <c r="F18" s="3">
-        <v>-21300</v>
+        <v>-22900</v>
       </c>
       <c r="G18" s="3">
         <v>-20100</v>
       </c>
       <c r="H18" s="3">
-        <v>4400</v>
+        <v>-7600</v>
       </c>
       <c r="I18" s="3">
         <v>-8300</v>
@@ -1218,20 +1218,20 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-18300</v>
       </c>
       <c r="E20" s="3">
         <v>3100</v>
       </c>
       <c r="F20" s="3">
-        <v>-7200</v>
+        <v>-9700</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1265,20 +1265,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-212300</v>
       </c>
       <c r="E21" s="3">
         <v>-9400</v>
       </c>
       <c r="F21" s="3">
-        <v>-28800</v>
+        <v>-32900</v>
       </c>
       <c r="G21" s="3">
         <v>-14300</v>
       </c>
       <c r="H21" s="3">
-        <v>5000</v>
+        <v>-7500</v>
       </c>
       <c r="I21" s="3">
         <v>-8200</v>
@@ -1360,19 +1360,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>241800</v>
+        <v>-217500</v>
       </c>
       <c r="E23" s="3">
         <v>-12100</v>
       </c>
       <c r="F23" s="3">
-        <v>-28500</v>
+        <v>-32600</v>
       </c>
       <c r="G23" s="3">
         <v>-19800</v>
       </c>
       <c r="H23" s="3">
-        <v>5000</v>
+        <v>-7500</v>
       </c>
       <c r="I23" s="3">
         <v>-8200</v>
@@ -1413,13 +1413,13 @@
         <v>2800</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>-600</v>
       </c>
       <c r="G24" s="3">
         <v>600</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1500,20 +1500,20 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>-215300</v>
       </c>
       <c r="E26" s="3">
         <v>-14900</v>
       </c>
       <c r="F26" s="3">
-        <v>-28600</v>
+        <v>-32000</v>
       </c>
       <c r="G26" s="3">
         <v>-20400</v>
       </c>
       <c r="H26" s="3">
-        <v>4900</v>
+        <v>-7500</v>
       </c>
       <c r="I26" s="3">
         <v>-8200</v>
@@ -1547,20 +1547,20 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>-214900</v>
       </c>
       <c r="E27" s="3">
         <v>-14300</v>
       </c>
       <c r="F27" s="3">
-        <v>-28800</v>
+        <v>-32200</v>
       </c>
       <c r="G27" s="3">
         <v>-20400</v>
       </c>
       <c r="H27" s="3">
-        <v>4900</v>
+        <v>-7500</v>
       </c>
       <c r="I27" s="3">
         <v>-8200</v>
@@ -1642,19 +1642,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>-500</v>
+        <v>12000</v>
       </c>
       <c r="I29" s="3">
         <v>-500</v>
@@ -1782,20 +1782,20 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>18300</v>
       </c>
       <c r="E32" s="3">
         <v>-3100</v>
       </c>
       <c r="F32" s="3">
-        <v>7200</v>
+        <v>9700</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1829,8 +1829,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>-215100</v>
       </c>
       <c r="E33" s="3">
         <v>-14300</v>
@@ -1842,7 +1842,7 @@
         <v>-20400</v>
       </c>
       <c r="H33" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I33" s="3">
         <v>-8800</v>
@@ -1923,8 +1923,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>-215100</v>
       </c>
       <c r="E35" s="3">
         <v>-14300</v>
@@ -1936,7 +1936,7 @@
         <v>-20400</v>
       </c>
       <c r="H35" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I35" s="3">
         <v>-8800</v>
@@ -2248,8 +2248,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
@@ -2577,8 +2577,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>5</v>
@@ -2851,7 +2851,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31600</v>
+        <v>33100</v>
       </c>
       <c r="E59" s="3">
         <v>41600</v>
@@ -3434,7 +3434,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>272900</v>
+        <v>-272900</v>
       </c>
       <c r="E72" s="3">
         <v>-43400</v>
@@ -3767,8 +3767,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>-215100</v>
       </c>
       <c r="E81" s="3">
         <v>-14300</v>
@@ -3780,7 +3780,7 @@
         <v>-20400</v>
       </c>
       <c r="H81" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I81" s="3">
         <v>-8800</v>
@@ -4323,7 +4323,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>14400</v>
+        <v>-17600</v>
       </c>
       <c r="E94" s="3">
         <v>1600</v>
@@ -4671,7 +4671,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>169200</v>
+        <v>12100</v>
       </c>
       <c r="E102" s="3">
         <v>-90700</v>

--- a/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>SOS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,157 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E8" s="3">
         <v>127400</v>
       </c>
-      <c r="E8" s="3">
-        <v>132700</v>
-      </c>
       <c r="F8" s="3">
+        <v>84800</v>
+      </c>
+      <c r="G8" s="3">
         <v>106300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>184500</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>9900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>39800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E9" s="3">
         <v>150300</v>
       </c>
-      <c r="E9" s="3">
-        <v>120300</v>
-      </c>
       <c r="F9" s="3">
+        <v>82200</v>
+      </c>
+      <c r="G9" s="3">
         <v>110600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>167200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>9800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
@@ -830,32 +837,35 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-22900</v>
       </c>
-      <c r="E10" s="3">
-        <v>12400</v>
-      </c>
       <c r="F10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G10" s="3">
         <v>-4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
@@ -877,8 +887,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +909,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -919,32 +933,35 @@
       <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11600</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,16 +1007,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1008,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>5700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="J14" s="3">
+        <v>5700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1022,23 +1042,26 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>-4400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
-        <v>9100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>9100</v>
       </c>
       <c r="Q14" s="3">
+        <v>9100</v>
+      </c>
+      <c r="R14" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E17" s="3">
         <v>326600</v>
       </c>
-      <c r="E17" s="3">
-        <v>148000</v>
-      </c>
       <c r="F17" s="3">
+        <v>106400</v>
+      </c>
+      <c r="G17" s="3">
         <v>129200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>204600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>80500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>46800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-199200</v>
       </c>
-      <c r="E18" s="3">
-        <v>-15300</v>
-      </c>
       <c r="F18" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-22900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-40700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,79 +1246,83 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-18300</v>
       </c>
-      <c r="E20" s="3">
-        <v>3100</v>
-      </c>
       <c r="F20" s="3">
+        <v>400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-9700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>21100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-212300</v>
       </c>
-      <c r="E21" s="3">
-        <v>-9400</v>
-      </c>
       <c r="F21" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-32900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1307,8 +1344,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,102 +1394,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-217500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-12100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-32600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-40400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2200</v>
       </c>
-      <c r="E24" s="3">
-        <v>2800</v>
-      </c>
       <c r="F24" s="3">
+        <v>600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>3400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-215300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-14900</v>
-      </c>
       <c r="F26" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-32000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-40700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-214900</v>
       </c>
-      <c r="E27" s="3">
-        <v>-14300</v>
-      </c>
       <c r="F27" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-32200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-40700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,32 +1694,35 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-300</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F29" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G29" s="3">
         <v>3400</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>12000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1677,14 +1738,17 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,102 +1844,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>18300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-3100</v>
-      </c>
       <c r="F32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G32" s="3">
         <v>9700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-21100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-215100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-40700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-215100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-40700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,55 +2141,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>249900</v>
+      </c>
+      <c r="E41" s="3">
         <v>259500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>247300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>338000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>185500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>71700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2149,73 +2239,79 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E43" s="3">
         <v>129000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>335300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>214900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>60600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>61300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>33800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E44" s="3">
         <v>46300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>84900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>96100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>102600</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2231,8 +2327,8 @@
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2243,32 +2339,35 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
         <v>164300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
         <v>16800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2284,14 +2383,17 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2337,8 +2439,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2360,79 +2465,85 @@
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1900</v>
-      </c>
-      <c r="P47" s="3">
-        <v>600</v>
       </c>
       <c r="Q47" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E48" s="3">
         <v>13500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2451,8 +2562,8 @@
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+      <c r="I49" s="3">
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -2469,8 +2580,8 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,55 +2689,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>53700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>57600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,55 +2789,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>429300</v>
+      </c>
+      <c r="E54" s="3">
         <v>454700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>713000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>695300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>559700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>72700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>69200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>111500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>91100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>103800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>115000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>137500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,34 +2881,35 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E57" s="3">
         <v>12800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2787,19 +2918,22 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>11100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2845,55 +2979,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E59" s="3">
         <v>33100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>91200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>131200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>60700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>56400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>53900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2939,8 +3079,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2986,8 +3129,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3000,18 +3146,18 @@
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
         <v>50200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3027,14 +3173,17 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,55 +3329,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E66" s="3">
         <v>45100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>61900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>70800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>132200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>95200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>76400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>79700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>78500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,55 +3599,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-283600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-272900</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-43400</v>
       </c>
       <c r="F72" s="3">
         <v>-43400</v>
       </c>
       <c r="G72" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-14600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-293100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-306000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-303800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-283200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-268300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-257300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-246700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-221700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,55 +3799,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>392300</v>
+      </c>
+      <c r="E76" s="3">
         <v>409600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>637100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>633400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>559800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-20300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-20700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-215100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-40700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,31 +4026,32 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>-300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5500</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3869,14 +4068,17 @@
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>31400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-104300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>120600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-339200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-43600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>-36600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-26900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-35300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,8 +4396,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4202,29 +4423,32 @@
       <c r="J91" s="3">
         <v>-10700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>-10700</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,55 +4544,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,76 +4814,82 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>16200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>551800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>43600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>7700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-6400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
@@ -4650,66 +4899,72 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E102" s="3">
         <v>12100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-90700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>149500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>184800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-40700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-31800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-36100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>15400</v>
       </c>
     </row>
